--- a/reference/composition.xlsx
+++ b/reference/composition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17355"/>
+    <workbookView windowWidth="18189" windowHeight="17090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -25,10 +25,136 @@
     <t>ans</t>
   </si>
   <si>
-    <t>S_H.png</t>
+    <t>A-H.png</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A-Q.png</t>
+  </si>
+  <si>
+    <t>A-S.png</t>
+  </si>
+  <si>
+    <t>A-W.png</t>
+  </si>
+  <si>
+    <t>H-A.png</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>H-J.png</t>
+  </si>
+  <si>
+    <t>H-S.png</t>
+  </si>
+  <si>
+    <t>H-W.png</t>
+  </si>
+  <si>
+    <t>H-Y.png</t>
+  </si>
+  <si>
+    <t>H-Z.png</t>
+  </si>
+  <si>
+    <t>J-H.png</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>J-Y.png</t>
+  </si>
+  <si>
+    <t>J-Z.png</t>
+  </si>
+  <si>
+    <t>Q-A.png</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Q-W.png</t>
+  </si>
+  <si>
+    <t>Q-Y.png</t>
+  </si>
+  <si>
+    <t>Q-Z.png</t>
+  </si>
+  <si>
+    <t>S-A.png</t>
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>S-H.png</t>
+  </si>
+  <si>
+    <t>S-W.png</t>
+  </si>
+  <si>
+    <t>S-Z.png</t>
+  </si>
+  <si>
+    <t>W-A.png</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>W-H.png</t>
+  </si>
+  <si>
+    <t>W-Q.png</t>
+  </si>
+  <si>
+    <t>W-S.png</t>
+  </si>
+  <si>
+    <t>W-Z.png</t>
+  </si>
+  <si>
+    <t>Y-H.png</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Y-J.png</t>
+  </si>
+  <si>
+    <t>Y-Q.png</t>
+  </si>
+  <si>
+    <t>Y-Z.png</t>
+  </si>
+  <si>
+    <t>Z-H.png</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Z-J.png</t>
+  </si>
+  <si>
+    <t>Z-Q.png</t>
+  </si>
+  <si>
+    <t>Z-S.png</t>
+  </si>
+  <si>
+    <t>Z-W.png</t>
+  </si>
+  <si>
+    <t>Z-Y.png</t>
   </si>
 </sst>
 </file>
@@ -38,8 +164,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -50,23 +176,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,6 +207,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -88,13 +245,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -103,17 +253,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,7 +299,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,52 +307,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,187 +329,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,15 +547,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -446,6 +563,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -456,21 +588,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,153 +611,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -970,7 +1096,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13533834586466" defaultRowHeight="15.15" outlineLevelCol="2"/>
@@ -1002,7 +1128,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1013,7 +1139,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -1024,7 +1150,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1035,10 +1161,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1046,10 +1172,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1057,10 +1183,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1068,10 +1194,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1079,10 +1205,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1090,10 +1216,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1101,10 +1227,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1112,10 +1238,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1123,10 +1249,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1134,10 +1260,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1145,10 +1271,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1156,10 +1282,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1167,10 +1293,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1178,10 +1304,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1189,10 +1315,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1200,10 +1326,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1211,10 +1337,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1222,10 +1348,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1233,10 +1359,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1244,10 +1370,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1255,10 +1381,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1266,10 +1392,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1277,10 +1403,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1288,10 +1414,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1299,10 +1425,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1310,10 +1436,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1321,10 +1447,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1332,10 +1458,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1343,10 +1469,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1354,10 +1480,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1365,10 +1491,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1376,10 +1502,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
